--- a/Basededados/brasila_Regular_season.xlsx
+++ b/Basededados/brasila_Regular_season.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Em casa</t>
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
@@ -492,7 +492,7 @@
       <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>Visitante</t>
         </is>
       </c>
       <c r="R1" s="1" t="n"/>
@@ -512,12 +512,12 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Rk</t>
+          <t>Cl</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Squad</t>
+          <t>Equipe</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -527,27 +527,27 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>GF</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>GC</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>Pts</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Pts/MP</t>
+          <t>Pts/PPJ</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -592,27 +592,27 @@
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>GF</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>GC</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Pts</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>Pts/MP</t>
+          <t>Pts/PPJ</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
@@ -688,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="M4" t="n">
         <v>5.4</v>
@@ -700,7 +700,7 @@
         <v>2.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="Z4" t="n">
         <v>2.1</v>
@@ -739,7 +739,7 @@
         <v>-1.9</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="5">
@@ -755,43 +755,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="M5" t="n">
-        <v>7.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>173</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="Z5" t="n">
         <v>2.9</v>
@@ -830,7 +830,7 @@
         <v>0.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -858,31 +858,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="M6" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>0.59</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="Z6" t="n">
         <v>5.8</v>
@@ -921,7 +921,7 @@
         <v>-2.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.95</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="7">
@@ -933,11 +933,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atl Paranaense</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -946,34 +946,34 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.6</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.28</v>
+        <v>101</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
@@ -982,37 +982,37 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
         <v>4</v>
       </c>
-      <c r="W7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3</v>
-      </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1040,34 +1040,34 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="M8" t="n">
-        <v>5.1</v>
+        <v>7.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>0.61</v>
+        <v>135</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -1076,34 +1076,34 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X8" t="n">
         <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.5</v>
+        <v>100</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.5</v>
+        <v>2.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1115,86 +1115,86 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atl Paranaense</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.67</v>
+        <v>300</v>
       </c>
       <c r="M9" t="n">
-        <v>7.9</v>
+        <v>1.8</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O9" t="n">
-        <v>4.8</v>
+        <v>-0.6</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>-28</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
         <v>4</v>
       </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.9</v>
+        <v>-1.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.93</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="10">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -1219,73 +1219,73 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P10" t="n">
-        <v>0.95</v>
+        <v>61</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.67</v>
+        <v>150</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="11">
@@ -1297,50 +1297,50 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>167</v>
       </c>
       <c r="M11" t="n">
-        <v>3.6</v>
+        <v>7.9</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="P11" t="n">
-        <v>0.84</v>
+        <v>161</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
@@ -1349,34 +1349,34 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.33</v>
+        <v>200</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -1388,86 +1388,86 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
         <v>6</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7</v>
-      </c>
       <c r="L12" t="n">
-        <v>2.33</v>
+        <v>300</v>
       </c>
       <c r="M12" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="P12" t="n">
-        <v>0.18</v>
+        <v>95</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1495,70 +1495,70 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="M13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA13" t="n">
         <v>3.2</v>
       </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB13" t="n">
-        <v>-4</v>
+        <v>-0.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.34</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="14">
@@ -1570,86 +1570,86 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>200</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
         <v>6</v>
       </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="P14" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3</v>
-      </c>
       <c r="W14" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>-1.4</v>
+        <v>-4</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.68</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="15">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1677,70 +1677,70 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="M15" t="n">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>-0.8</v>
       </c>
       <c r="P15" t="n">
-        <v>1.35</v>
+        <v>-25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W15" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Z15" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.42</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="16">
@@ -1752,17 +1752,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1771,67 +1771,67 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>133</v>
       </c>
       <c r="M16" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.9</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.62</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="17">
@@ -1843,47 +1843,47 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P17" t="n">
-        <v>0.34</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
@@ -1892,37 +1892,37 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.67</v>
+        <v>100</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>-1.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.46</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="18">
@@ -1934,14 +1934,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1950,37 +1950,37 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>50</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="P18" t="n">
-        <v>0.14</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -1992,28 +1992,28 @@
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.1</v>
+        <v>-1.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.06</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>2.5</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.52</v>
+        <v>52</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>-3.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.18</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0.33</v>
+        <v>33</v>
       </c>
       <c r="M20" t="n">
         <v>2.6</v>
@@ -2156,10 +2156,10 @@
         <v>-2.5</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.83</v>
+        <v>-83</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -2168,34 +2168,34 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X20" t="n">
         <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.5</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="AB20" t="n">
         <v>-2.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.47</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="21">
@@ -2235,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>150</v>
       </c>
       <c r="M21" t="n">
         <v>1.9</v>
@@ -2247,7 +2247,7 @@
         <v>-0.7</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.34</v>
+        <v>-34</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
@@ -2286,7 +2286,7 @@
         <v>-1.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.61</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="22">
@@ -2326,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0.67</v>
+        <v>67</v>
       </c>
       <c r="M22" t="n">
         <v>3.6</v>
@@ -2338,7 +2338,7 @@
         <v>-0.9</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.29</v>
+        <v>-29</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
@@ -2377,7 +2377,7 @@
         <v>-2.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>-1.06</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="23">
@@ -2429,7 +2429,7 @@
         <v>-1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.53</v>
+        <v>-53</v>
       </c>
       <c r="Q23" t="n">
         <v>3</v>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.33</v>
+        <v>33</v>
       </c>
       <c r="Z23" t="n">
         <v>4.8</v>
@@ -2468,7 +2468,7 @@
         <v>-0.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.3</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
